--- a/Mysql/quiz/northwind/northwind.xlsx
+++ b/Mysql/quiz/northwind/northwind.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lect\$$_데이터베이스\$_MySQL\NorthWind_sample_database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\lect\$$_데이터베이스\$_MySQL\quiz\northwind\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" tabRatio="769" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6975" tabRatio="769" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="customers" sheetId="3" r:id="rId1"/>
@@ -1092,10 +1092,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>supplier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>employee</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1113,6 +1109,10 @@
   </si>
   <si>
     <t>customer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplier</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1196,6 +1196,9 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
@@ -1205,7 +1208,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1220,9 +1223,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1267,7 +1267,7 @@
     <tableColumn id="5" name="tel"/>
     <tableColumn id="6" name="address"/>
     <tableColumn id="7" name="city"/>
-    <tableColumn id="9" name="region" dataDxfId="7"/>
+    <tableColumn id="9" name="region" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1292,9 +1292,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name=" product_name"/>
-    <tableColumn id="6" name=" supplier" dataDxfId="6"/>
+    <tableColumn id="6" name=" supplier" dataDxfId="7"/>
     <tableColumn id="4" name=" price" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name=" category" dataDxfId="5"/>
+    <tableColumn id="7" name=" category" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1306,9 +1306,9 @@
   <tableColumns count="8">
     <tableColumn id="10" name="no"/>
     <tableColumn id="11" name="order_id"/>
-    <tableColumn id="5" name="supplier" dataDxfId="4"/>
-    <tableColumn id="6" name="employee" dataDxfId="3"/>
-    <tableColumn id="4" name="order_date" dataDxfId="8"/>
+    <tableColumn id="1" name="supplier" dataDxfId="0"/>
+    <tableColumn id="6" name="employee" dataDxfId="5"/>
+    <tableColumn id="4" name="order_date" dataDxfId="4"/>
     <tableColumn id="7" name="product"/>
     <tableColumn id="8" name="qty"/>
     <tableColumn id="9" name="receive_date"/>
@@ -1323,9 +1323,9 @@
   <tableColumns count="7">
     <tableColumn id="1" name="no"/>
     <tableColumn id="7" name="order_id"/>
-    <tableColumn id="5" name="employee" dataDxfId="2"/>
-    <tableColumn id="6" name="customer" dataDxfId="1"/>
-    <tableColumn id="4" name="order_date" dataDxfId="0"/>
+    <tableColumn id="5" name="employee" dataDxfId="3"/>
+    <tableColumn id="6" name="customer" dataDxfId="2"/>
+    <tableColumn id="4" name="order_date" dataDxfId="1"/>
     <tableColumn id="8" name="product"/>
     <tableColumn id="9" name="qty"/>
   </tableColumns>
@@ -1598,23 +1598,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2522,21 +2522,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2809,18 +2809,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="16.4140625" customWidth="1"/>
-    <col min="4" max="4" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2987,19 +2987,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3794,38 +3794,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" t="s">
         <v>352</v>
-      </c>
-      <c r="D1" t="s">
-        <v>353</v>
       </c>
       <c r="E1" t="s">
         <v>345</v>
       </c>
       <c r="F1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G1" t="s">
         <v>347</v>
@@ -3834,7 +3834,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
         <v>228</v>
@@ -3860,7 +3860,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>228</v>
@@ -3886,7 +3886,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>228</v>
@@ -3912,7 +3912,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>228</v>
@@ -3938,7 +3938,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>228</v>
@@ -4016,7 +4016,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>228</v>
@@ -4068,7 +4068,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>228</v>
@@ -4094,7 +4094,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>228</v>
@@ -4146,7 +4146,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>228</v>
@@ -4172,7 +4172,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>228</v>
@@ -4198,7 +4198,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>228</v>
@@ -4224,7 +4224,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>228</v>
@@ -4250,7 +4250,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>228</v>
@@ -4276,7 +4276,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>228</v>
@@ -4328,7 +4328,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>228</v>
@@ -4354,7 +4354,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>228</v>
@@ -4380,7 +4380,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>228</v>
@@ -4406,7 +4406,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>228</v>
@@ -4432,7 +4432,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D25" t="s">
         <v>228</v>
@@ -4458,7 +4458,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>228</v>
@@ -4510,7 +4510,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>228</v>
@@ -4536,7 +4536,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>228</v>
@@ -4562,7 +4562,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>240</v>
@@ -4588,7 +4588,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>246</v>
@@ -4614,7 +4614,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>237</v>
@@ -4640,7 +4640,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>233</v>
@@ -4666,7 +4666,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>255</v>
@@ -4692,7 +4692,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>228</v>
@@ -4718,7 +4718,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>225</v>
@@ -4744,7 +4744,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>225</v>
@@ -4770,7 +4770,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>225</v>
@@ -4796,7 +4796,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>246</v>
@@ -4822,7 +4822,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>246</v>
@@ -4848,7 +4848,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>243</v>
@@ -4874,7 +4874,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>237</v>
@@ -4900,7 +4900,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>237</v>
@@ -4926,7 +4926,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>233</v>
@@ -4952,7 +4952,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>228</v>
@@ -4978,7 +4978,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>228</v>
@@ -5004,7 +5004,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D47" t="s">
         <v>228</v>
@@ -5030,7 +5030,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>228</v>
@@ -5056,7 +5056,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>228</v>
@@ -5082,7 +5082,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>237</v>
@@ -5108,7 +5108,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>225</v>
@@ -5134,7 +5134,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>246</v>
@@ -5160,7 +5160,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5267,8 +5267,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5277,43 +5278,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.9140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s">
         <v>346</v>
       </c>
       <c r="C1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" t="s">
         <v>345</v>
       </c>
       <c r="F1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5359,7 +5360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5451,7 +5452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5497,7 +5498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5520,7 +5521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5589,7 +5590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5612,7 +5613,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5635,7 +5636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5681,7 +5682,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5750,7 +5751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5796,7 +5797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5819,7 +5820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5842,7 +5843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5888,7 +5889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5957,7 +5958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5980,7 +5981,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6003,7 +6004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6049,7 +6050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6095,7 +6096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6164,7 +6165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6187,7 +6188,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6210,7 +6211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6233,7 +6234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6256,7 +6257,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6279,7 +6280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6325,7 +6326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6371,7 +6372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6417,7 +6418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6440,7 +6441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6463,7 +6464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6486,7 +6487,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6509,7 +6510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6578,7 +6579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6601,7 +6602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6624,7 +6625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6647,7 +6648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
